--- a/tables/20_45_fxnal-enrich-genetic-interactions/enrichr_results_LUAD_G13C.xlsx
+++ b/tables/20_45_fxnal-enrich-genetic-interactions/enrichr_results_LUAD_G13C.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="292">
   <si>
     <t>datasource</t>
   </si>
@@ -170,22 +170,112 @@
     <t>43</t>
   </si>
   <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
     <t>WikiPathways_2019_Human</t>
   </si>
   <si>
+    <t>PPI_Hub_Proteins</t>
+  </si>
+  <si>
     <t>Reactome_2016</t>
   </si>
   <si>
     <t>GO_Biological_Process_2018</t>
   </si>
   <si>
-    <t>PPI_Hub_Proteins</t>
+    <t>KEA_2015</t>
   </si>
   <si>
     <t>Panther_2016</t>
   </si>
   <si>
-    <t>KEA_2015</t>
+    <t>KEGG_2019_Human</t>
   </si>
   <si>
     <t>BioCarta_2016</t>
@@ -194,40 +284,46 @@
     <t>Focal Adhesion-PI3K-Akt-mTOR-signaling pathway WP3932</t>
   </si>
   <si>
+    <t>PLCG1</t>
+  </si>
+  <si>
+    <t>Axon guidance_Homo sapiens_R-HSA-422475</t>
+  </si>
+  <si>
+    <t>O-linked glycosylation_Homo sapiens_R-HSA-5173105</t>
+  </si>
+  <si>
     <t>Diseases of glycosylation_Homo sapiens_R-HSA-3781865</t>
   </si>
   <si>
+    <t>Diseases associated with O-glycosylation of proteins_Homo sapiens_R-HSA-3906995</t>
+  </si>
+  <si>
     <t>extracellular matrix organization (GO:0030198)</t>
   </si>
   <si>
-    <t>O-linked glycosylation_Homo sapiens_R-HSA-5173105</t>
-  </si>
-  <si>
-    <t>PLCG1</t>
-  </si>
-  <si>
     <t>O-glycosylation of TSR domain-containing proteins_Homo sapiens_R-HSA-5173214</t>
   </si>
   <si>
+    <t>Post-translational protein modification_Homo sapiens_R-HSA-597592</t>
+  </si>
+  <si>
     <t>Defective B3GALTL causes Peters-plus syndrome (PpS)_Homo sapiens_R-HSA-5083635</t>
   </si>
   <si>
-    <t>Post-translational protein modification_Homo sapiens_R-HSA-597592</t>
-  </si>
-  <si>
-    <t>Diseases associated with O-glycosylation of proteins_Homo sapiens_R-HSA-3906995</t>
-  </si>
-  <si>
-    <t>Axon guidance_Homo sapiens_R-HSA-422475</t>
-  </si>
-  <si>
     <t>Extracellular matrix organization_Homo sapiens_R-HSA-1474244</t>
   </si>
   <si>
+    <t>Developmental Biology_Homo sapiens_R-HSA-1266738</t>
+  </si>
+  <si>
+    <t>L1CAM interactions_Homo sapiens_R-HSA-373760</t>
+  </si>
+  <si>
     <t>Overview of nanoparticle effects WP3287</t>
   </si>
   <si>
-    <t>Developmental Biology_Homo sapiens_R-HSA-1266738</t>
+    <t>PRKACA</t>
   </si>
   <si>
     <t>Integrin cell surface interactions_Homo sapiens_R-HSA-216083</t>
@@ -236,109 +332,187 @@
     <t>Interaction between L1 and Ankyrins_Homo sapiens_R-HSA-445095</t>
   </si>
   <si>
+    <t>Focal Adhesion WP306</t>
+  </si>
+  <si>
+    <t>AKT1</t>
+  </si>
+  <si>
     <t>MTOR</t>
   </si>
   <si>
+    <t>PRKCA</t>
+  </si>
+  <si>
+    <t>PTPN6</t>
+  </si>
+  <si>
+    <t>MAPK10</t>
+  </si>
+  <si>
+    <t>RPS6KA3</t>
+  </si>
+  <si>
+    <t>RB1</t>
+  </si>
+  <si>
+    <t>PIK3CA</t>
+  </si>
+  <si>
+    <t>PLCG2</t>
+  </si>
+  <si>
+    <t>PIK3R1</t>
+  </si>
+  <si>
+    <t>CRK</t>
+  </si>
+  <si>
+    <t>MDM2</t>
+  </si>
+  <si>
+    <t>PRKG1</t>
+  </si>
+  <si>
+    <t>CALM3</t>
+  </si>
+  <si>
+    <t>GRIN2B</t>
+  </si>
+  <si>
+    <t>CAMK2A</t>
+  </si>
+  <si>
+    <t>SHC1</t>
+  </si>
+  <si>
+    <t>CTNNB1</t>
+  </si>
+  <si>
+    <t>TEC</t>
+  </si>
+  <si>
+    <t>CDK1</t>
+  </si>
+  <si>
+    <t>GRIN1</t>
+  </si>
+  <si>
+    <t>GSK3B</t>
+  </si>
+  <si>
     <t>Integrin signalling pathway_Homo sapiens_P00034</t>
   </si>
   <si>
-    <t>RPS6KA3</t>
-  </si>
-  <si>
-    <t>GRIN2B</t>
-  </si>
-  <si>
-    <t>PRKACA</t>
-  </si>
-  <si>
-    <t>AKT1</t>
-  </si>
-  <si>
-    <t>CDK1</t>
-  </si>
-  <si>
-    <t>TEC</t>
-  </si>
-  <si>
-    <t>PRKG1</t>
-  </si>
-  <si>
-    <t>MAPK10</t>
-  </si>
-  <si>
-    <t>MDM2</t>
-  </si>
-  <si>
-    <t>PRKCA</t>
-  </si>
-  <si>
-    <t>RB1</t>
-  </si>
-  <si>
-    <t>GSK3B</t>
-  </si>
-  <si>
-    <t>L1CAM interactions_Homo sapiens_R-HSA-373760</t>
+    <t>Focal adhesion</t>
+  </si>
+  <si>
+    <t>Gastrin-CREB signalling pathway via PKC and MAPK_Homo sapiens_R-HSA-881907</t>
+  </si>
+  <si>
+    <t>CALM1</t>
+  </si>
+  <si>
+    <t>VEGFR2 mediated cell proliferation_Homo sapiens_R-HSA-5218921</t>
   </si>
   <si>
     <t>calcium-mediated signaling using intracellular calcium source (GO:0035584)</t>
   </si>
   <si>
+    <t>FOS</t>
+  </si>
+  <si>
+    <t>ERBB2</t>
+  </si>
+  <si>
     <t>positive regulation of dendrite morphogenesis (GO:0050775)</t>
   </si>
   <si>
-    <t>GRIN1</t>
-  </si>
-  <si>
-    <t>CAMK2A</t>
-  </si>
-  <si>
-    <t>PTPN6</t>
-  </si>
-  <si>
-    <t>CALM3</t>
-  </si>
-  <si>
-    <t>Actions of Nitric Oxide in the Heart_Homo sapiens_h_no1Pathway</t>
-  </si>
-  <si>
-    <t>9/303</t>
+    <t>regulation of kinase activity (GO:0043549)</t>
+  </si>
+  <si>
+    <t>CBL</t>
+  </si>
+  <si>
+    <t>Agrin in Postsynaptic Differentiation_Homo sapiens_h_agrPathway</t>
+  </si>
+  <si>
+    <t>PRKDC</t>
+  </si>
+  <si>
+    <t>positive regulation of kinase activity (GO:0033674)</t>
+  </si>
+  <si>
+    <t>endoderm formation (GO:0001706)</t>
+  </si>
+  <si>
+    <t>heart development (GO:0007507)</t>
+  </si>
+  <si>
+    <t>CSNK2A1</t>
+  </si>
+  <si>
+    <t>Chromatin Remodeling by hSWI/SNF ATP-dependent Complexes_Homo sapiens_h_hSWI-SNFpathway</t>
+  </si>
+  <si>
+    <t>CDC42</t>
+  </si>
+  <si>
+    <t>ECM proteoglycans_Homo sapiens_R-HSA-3000178</t>
+  </si>
+  <si>
+    <t>MAPK family signaling cascades_Homo sapiens_R-HSA-5683057</t>
+  </si>
+  <si>
+    <t>regulation of cell migration (GO:0030334)</t>
+  </si>
+  <si>
+    <t>negative regulation of signaling (GO:0023057)</t>
+  </si>
+  <si>
+    <t>10/303</t>
+  </si>
+  <si>
+    <t>9/244</t>
+  </si>
+  <si>
+    <t>12/515</t>
+  </si>
+  <si>
+    <t>6/110</t>
   </si>
   <si>
     <t>6/88</t>
   </si>
   <si>
+    <t>5/62</t>
+  </si>
+  <si>
     <t>9/230</t>
   </si>
   <si>
-    <t>6/110</t>
-  </si>
-  <si>
-    <t>8/244</t>
-  </si>
-  <si>
     <t>4/38</t>
   </si>
   <si>
+    <t>11/521</t>
+  </si>
+  <si>
     <t>4/37</t>
   </si>
   <si>
-    <t>11/521</t>
-  </si>
-  <si>
-    <t>5/62</t>
-  </si>
-  <si>
-    <t>11/515</t>
-  </si>
-  <si>
     <t>8/283</t>
   </si>
   <si>
+    <t>13/786</t>
+  </si>
+  <si>
+    <t>5/96</t>
+  </si>
+  <si>
     <t>3/19</t>
   </si>
   <si>
-    <t>12/786</t>
+    <t>9/440</t>
   </si>
   <si>
     <t>4/67</t>
@@ -347,124 +521,208 @@
     <t>3/29</t>
   </si>
   <si>
+    <t>6/198</t>
+  </si>
+  <si>
+    <t>7/355</t>
+  </si>
+  <si>
     <t>5/138</t>
   </si>
   <si>
+    <t>9/547</t>
+  </si>
+  <si>
+    <t>5/173</t>
+  </si>
+  <si>
+    <t>5/182</t>
+  </si>
+  <si>
+    <t>7/375</t>
+  </si>
+  <si>
+    <t>5/209</t>
+  </si>
+  <si>
+    <t>4/125</t>
+  </si>
+  <si>
+    <t>4/121</t>
+  </si>
+  <si>
+    <t>6/301</t>
+  </si>
+  <si>
+    <t>5/215</t>
+  </si>
+  <si>
+    <t>5/197</t>
+  </si>
+  <si>
+    <t>5/172</t>
+  </si>
+  <si>
+    <t>5/219</t>
+  </si>
+  <si>
+    <t>4/78</t>
+  </si>
+  <si>
+    <t>5/160</t>
+  </si>
+  <si>
+    <t>5/195</t>
+  </si>
+  <si>
+    <t>4/90</t>
+  </si>
+  <si>
+    <t>8/442</t>
+  </si>
+  <si>
+    <t>6/337</t>
+  </si>
+  <si>
+    <t>2/9</t>
+  </si>
+  <si>
+    <t>10/659</t>
+  </si>
+  <si>
+    <t>4/149</t>
+  </si>
+  <si>
+    <t>9/696</t>
+  </si>
+  <si>
     <t>5/156</t>
   </si>
   <si>
-    <t>4/78</t>
-  </si>
-  <si>
-    <t>7/375</t>
-  </si>
-  <si>
-    <t>5/219</t>
-  </si>
-  <si>
-    <t>8/440</t>
-  </si>
-  <si>
-    <t>7/355</t>
-  </si>
-  <si>
-    <t>9/659</t>
-  </si>
-  <si>
-    <t>2/9</t>
-  </si>
-  <si>
-    <t>4/121</t>
-  </si>
-  <si>
-    <t>5/182</t>
-  </si>
-  <si>
-    <t>5/197</t>
-  </si>
-  <si>
-    <t>8/547</t>
-  </si>
-  <si>
-    <t>5/209</t>
-  </si>
-  <si>
-    <t>9/696</t>
-  </si>
-  <si>
-    <t>4/96</t>
+    <t>4/106</t>
+  </si>
+  <si>
+    <t>8/393</t>
+  </si>
+  <si>
+    <t>6/199</t>
+  </si>
+  <si>
+    <t>8/432</t>
+  </si>
+  <si>
+    <t>6/359</t>
+  </si>
+  <si>
+    <t>6/248</t>
   </si>
   <si>
     <t>3/18</t>
   </si>
   <si>
+    <t>4/173</t>
+  </si>
+  <si>
+    <t>4/175</t>
+  </si>
+  <si>
     <t>3/16</t>
   </si>
   <si>
-    <t>4/149</t>
-  </si>
-  <si>
-    <t>8/494</t>
-  </si>
-  <si>
-    <t>4/106</t>
-  </si>
-  <si>
-    <t>4/160</t>
-  </si>
-  <si>
-    <t>8/393</t>
-  </si>
-  <si>
-    <t>4/173</t>
-  </si>
-  <si>
     <t>5/210</t>
   </si>
   <si>
-    <t>4/172</t>
+    <t>5/102</t>
+  </si>
+  <si>
+    <t>4/180</t>
+  </si>
+  <si>
+    <t>2/17</t>
+  </si>
+  <si>
+    <t>3/47</t>
+  </si>
+  <si>
+    <t>5/296</t>
   </si>
   <si>
     <t>6/332</t>
   </si>
   <si>
-    <t>3/42</t>
-  </si>
-  <si>
-    <t>RELN;ITGAD;COL11A1;ITGAX;KDR;FN1;IRS2;LAMB1;NOS1</t>
+    <t>5/114</t>
+  </si>
+  <si>
+    <t>9/494</t>
+  </si>
+  <si>
+    <t>3/37</t>
+  </si>
+  <si>
+    <t>5/150</t>
+  </si>
+  <si>
+    <t>7/564</t>
+  </si>
+  <si>
+    <t>2/16</t>
+  </si>
+  <si>
+    <t>4/205</t>
+  </si>
+  <si>
+    <t>3/55</t>
+  </si>
+  <si>
+    <t>6/284</t>
+  </si>
+  <si>
+    <t>7/317</t>
+  </si>
+  <si>
+    <t>4/84</t>
+  </si>
+  <si>
+    <t>RELN;ITGAD;COL11A1;ITGAX;KDR;FN1;IRS2;LAMB1;NOS1;EGFR</t>
+  </si>
+  <si>
+    <t>ITK;ARHGAP32;TRPC3;AHNAK;NTRK3;KDR;IRS2;FLNC;EGFR</t>
+  </si>
+  <si>
+    <t>SEMA5A;SPTA1;TRPC3;MYO10;KDR;FN1;NF1;SCN7A;IRS2;LAMB1;SCN3A;EGFR</t>
+  </si>
+  <si>
+    <t>SEMA5A;ADAMTS16;WBSCR17;MUC16;ADAMTSL3;ADAMTS12</t>
   </si>
   <si>
     <t>SEMA5A;ADAMTS16;VCAN;MUC16;ADAMTSL3;ADAMTS12</t>
   </si>
   <si>
+    <t>SEMA5A;ADAMTS16;MUC16;ADAMTSL3;ADAMTS12</t>
+  </si>
+  <si>
     <t>POSTN;VCAN;ITGAD;COL11A1;ITGAX;KDR;FN1;NF1;LAMB1</t>
   </si>
   <si>
-    <t>SEMA5A;ADAMTS16;WBSCR17;MUC16;ADAMTSL3;ADAMTS12</t>
-  </si>
-  <si>
-    <t>ITK;ARHGAP32;TRPC3;AHNAK;NTRK3;KDR;IRS2;FLNC</t>
-  </si>
-  <si>
     <t>SEMA5A;ADAMTS16;ADAMTSL3;ADAMTS12</t>
   </si>
   <si>
     <t>SEMA5A;SPTA1;ADAMTS16;MDC1;WBSCR17;ST6GAL2;MUC16;MAN2A1;ADAMTSL3;ADAMTS12;F5</t>
   </si>
   <si>
-    <t>SEMA5A;ADAMTS16;MUC16;ADAMTSL3;ADAMTS12</t>
-  </si>
-  <si>
-    <t>SEMA5A;SPTA1;TRPC3;MYO10;KDR;FN1;NF1;SCN7A;IRS2;LAMB1;SCN3A</t>
-  </si>
-  <si>
     <t>ADAMTS16;VCAN;ITGAD;COL11A1;ITGAX;KDR;FN1;LAMB1</t>
   </si>
   <si>
+    <t>SEMA5A;TRPC3;MYO10;NCOA6;FN1;IRS2;LAMB1;EGFR;SPTA1;KDR;NF1;SCN7A;SCN3A</t>
+  </si>
+  <si>
+    <t>SPTA1;SCN7A;LAMB1;SCN3A;EGFR</t>
+  </si>
+  <si>
     <t>ITGAD;FN1;NFRKB</t>
   </si>
   <si>
-    <t>SEMA5A;SPTA1;TRPC3;MYO10;NCOA6;KDR;FN1;NF1;SCN7A;IRS2;LAMB1;SCN3A</t>
+    <t>RYR2;PLCB3;CUX1;PDE3A;IRS2;ETV1;NOS1;EGFR;ARHGEF6</t>
   </si>
   <si>
     <t>ITGAD;KDR;ITGAX;FN1</t>
@@ -473,85 +731,163 @@
     <t>SPTA1;SCN7A;SCN3A</t>
   </si>
   <si>
+    <t>RELN;KDR;FN1;LAMB1;FLNC;EGFR</t>
+  </si>
+  <si>
+    <t>RYR2;ARHGAP32;PLCB3;AHNAK;PDE3A;IRS2;FLNC</t>
+  </si>
+  <si>
     <t>PREX1;AHNAK;CUX1;IRS2;NFRKB</t>
   </si>
   <si>
+    <t>SEMA5A;GRM5;PLCB3;TRPC3;NF1;PDE3A;NOS1;FLNC;EGFR</t>
+  </si>
+  <si>
+    <t>PLCB3;KDR;IRS2;NOS1;EGFR</t>
+  </si>
+  <si>
+    <t>MDC1;GRM5;ASXL2;IRS2;BCOR</t>
+  </si>
+  <si>
+    <t>RYR2;PLCB3;AHNAK;IRS2;ETV1;KIAA1244;NOS1</t>
+  </si>
+  <si>
+    <t>CENPF;CUX1;NCOA6;BDP1;SMARCA4</t>
+  </si>
+  <si>
+    <t>ITK;KDR;IRS2;EGFR</t>
+  </si>
+  <si>
+    <t>ITK;KDR;FN1;EGFR</t>
+  </si>
+  <si>
+    <t>ITK;ARHGAP32;KDR;IRS2;FLNC;EGFR</t>
+  </si>
+  <si>
+    <t>ARHGAP32;KDR;IRS2;FLNC;EGFR</t>
+  </si>
+  <si>
+    <t>PTPRD;MDC1;RYR2;PPM1D;ARHGEF6</t>
+  </si>
+  <si>
+    <t>RYR2;PLCB3;TRPC3;KIAA1244</t>
+  </si>
+  <si>
+    <t>GRM5;PLCB3;MYO10;NOS1;EGFR</t>
+  </si>
+  <si>
+    <t>ARHGAP32;GRM5;NF1;NOS1;FLNC</t>
+  </si>
+  <si>
+    <t>AHNAK;CUX1;IRS2;NFRKB</t>
+  </si>
+  <si>
+    <t>RYR2;GRM5;PLCB3;NOS1;EGFR</t>
+  </si>
+  <si>
+    <t>SPTA1;NTRK3;KDR;IRS2;EGFR</t>
+  </si>
+  <si>
+    <t>RYR2;PLCB3;NOS1;EGFR</t>
+  </si>
+  <si>
+    <t>SEMA5A;GRM5;PLCB3;TRPC3;NF1;PDE3A;NOS1;EGFR</t>
+  </si>
+  <si>
+    <t>KDR;EP400;IGF2BP1;EGFR;DSC3;SMARCA4</t>
+  </si>
+  <si>
+    <t>ITK;BDP1</t>
+  </si>
+  <si>
+    <t>MDC1;GRM5;AHNAK;CUX1;ASXL2;EP400;NF1;IRS2;NFRKB;EGFR</t>
+  </si>
+  <si>
+    <t>GRM5;NF1;NOS1;FLNC</t>
+  </si>
+  <si>
+    <t>MDC1;GRM5;AHNAK;CUX1;ASXL2;IGF2BP1;IRS2;NFRKB;ARHGEF6</t>
+  </si>
+  <si>
     <t>ITGAD;COL11A1;ITGAX;FN1;LAMB1</t>
   </si>
   <si>
-    <t>AHNAK;CUX1;IRS2;NFRKB</t>
-  </si>
-  <si>
-    <t>RYR2;PLCB3;AHNAK;IRS2;ETV1;KIAA1244;NOS1</t>
-  </si>
-  <si>
-    <t>ARHGAP32;GRM5;NF1;NOS1;FLNC</t>
-  </si>
-  <si>
-    <t>RYR2;PLCB3;CUX1;PDE3A;IRS2;ETV1;NOS1;ARHGEF6</t>
-  </si>
-  <si>
-    <t>RYR2;ARHGAP32;PLCB3;AHNAK;PDE3A;IRS2;FLNC</t>
-  </si>
-  <si>
-    <t>MDC1;GRM5;AHNAK;CUX1;ASXL2;EP400;NF1;IRS2;NFRKB</t>
-  </si>
-  <si>
-    <t>ITK;BDP1</t>
-  </si>
-  <si>
-    <t>RYR2;PLCB3;TRPC3;KIAA1244</t>
-  </si>
-  <si>
-    <t>MDC1;GRM5;ASXL2;IRS2;BCOR</t>
-  </si>
-  <si>
-    <t>PTPRD;MDC1;RYR2;PPM1D;ARHGEF6</t>
-  </si>
-  <si>
-    <t>SEMA5A;GRM5;PLCB3;TRPC3;NF1;PDE3A;NOS1;FLNC</t>
-  </si>
-  <si>
-    <t>CENPF;CUX1;NCOA6;BDP1;SMARCA4</t>
-  </si>
-  <si>
-    <t>MDC1;GRM5;AHNAK;CUX1;ASXL2;IGF2BP1;IRS2;NFRKB;ARHGEF6</t>
-  </si>
-  <si>
-    <t>SPTA1;SCN7A;LAMB1;SCN3A</t>
+    <t>RYR2;GRM5;PLCB3;AHNAK;CUX1;PDE3A;ETV1;NOS1</t>
+  </si>
+  <si>
+    <t>SPTA1;GRM5;PLCB3;TRPC3;FN1;NF1;IRS2;EGFR</t>
+  </si>
+  <si>
+    <t>GRM5;TRPC3;MYO10;NF1;NOS1;EGFR</t>
+  </si>
+  <si>
+    <t>SPTA1;KDR;FN1;NF1;IRS2;EGFR</t>
   </si>
   <si>
     <t>RYR2;GRM5;KDR</t>
   </si>
   <si>
+    <t>NCOA6;NTRK3;EP400;EGFR</t>
+  </si>
+  <si>
+    <t>ITK;IRS2;ETV1;EGFR</t>
+  </si>
+  <si>
     <t>PTPRD;RELN;CUX1</t>
   </si>
   <si>
-    <t>GRM5;NF1;NOS1;FLNC</t>
-  </si>
-  <si>
-    <t>GRM5;AHNAK;CUX1;ASXL2;EP400;NF1;IRS2;NFRKB</t>
-  </si>
-  <si>
-    <t>RYR2;GRM5;PLCB3;NOS1</t>
-  </si>
-  <si>
-    <t>RYR2;GRM5;PLCB3;AHNAK;CUX1;PDE3A;ETV1;NOS1</t>
-  </si>
-  <si>
-    <t>PLCB3;KDR;IRS2;NOS1</t>
-  </si>
-  <si>
     <t>RYR2;PLCB3;PDE3A;IRS2;FLNC</t>
   </si>
   <si>
-    <t>GRM5;PLCB3;MYO10;NOS1</t>
+    <t>NTRK3;KDR;IRS2;ROR2;EGFR</t>
+  </si>
+  <si>
+    <t>SPTA1;ITK;KDR;EGFR</t>
+  </si>
+  <si>
+    <t>IRS2;EGFR</t>
+  </si>
+  <si>
+    <t>LAMB1;EGFR;ARHGEF6</t>
+  </si>
+  <si>
+    <t>MDC1;RYR2;NCOA6;IRS2;ETV1</t>
   </si>
   <si>
     <t>RYR2;PLCB3;AHNAK;IRS2;ETV1;KIAA1244</t>
   </si>
   <si>
-    <t>RYR2;KDR;PDE3A</t>
+    <t>RELN;NTRK3;KDR;ROR2;EGFR</t>
+  </si>
+  <si>
+    <t>GRM5;AHNAK;CUX1;ASXL2;EP400;NF1;IRS2;NFRKB;EGFR</t>
+  </si>
+  <si>
+    <t>COL11A1;FN1;LAMB1</t>
+  </si>
+  <si>
+    <t>NCOA6;NTRK3;CHD7;NF1;BCOR</t>
+  </si>
+  <si>
+    <t>MDC1;CUX1;BDP1;NFRKB;EGFR;F5;SMARCA4</t>
+  </si>
+  <si>
+    <t>NF1;SMARCA4</t>
+  </si>
+  <si>
+    <t>ARHGAP32;NUF2;KDR;ARHGEF6</t>
+  </si>
+  <si>
+    <t>VCAN;ITGAX;LAMB1</t>
+  </si>
+  <si>
+    <t>SPTA1;IGF2BP1;FN1;NF1;IRS2;EGFR</t>
+  </si>
+  <si>
+    <t>NTRK3;KDR;NF1;LAMB1;ROR2;MYPN;EGFR</t>
+  </si>
+  <si>
+    <t>NTRK3;KDR;ROR2;EGFR</t>
   </si>
 </sst>
 </file>
@@ -637,31 +973,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="E2" t="n">
-        <v>7.479825795811188E-6</v>
+        <v>1.1950371418291935E-6</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0035304777756228808</v>
+        <v>5.640575309433793E-4</v>
       </c>
       <c r="G2" t="n">
-        <v>6.75067506750675</v>
+        <v>7.253472600007252</v>
       </c>
       <c r="H2" t="n">
-        <v>79.68025015017423</v>
+        <v>98.91802337094396</v>
       </c>
       <c r="I2" t="s">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="J2" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="3">
@@ -669,31 +1005,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="E3" t="n">
-        <v>2.4778866205775843E-6</v>
+        <v>1.6967146405499316E-6</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003791166529483704</v>
+        <v>6.532351366117237E-4</v>
       </c>
       <c r="G3" t="n">
-        <v>15.495867768595039</v>
+        <v>8.106647450909746</v>
       </c>
       <c r="H3" t="n">
-        <v>200.0222809433653</v>
+        <v>107.71153906491449</v>
       </c>
       <c r="I3" t="s">
-        <v>140</v>
+        <v>224</v>
       </c>
       <c r="J3" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="4">
@@ -701,31 +1037,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="E4" t="n">
-        <v>7.813387187105292E-7</v>
+        <v>3.72123563515904E-6</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003987171481579831</v>
+        <v>0.0028467452608966657</v>
       </c>
       <c r="G4" t="n">
-        <v>8.893280632411066</v>
+        <v>5.121092499733276</v>
       </c>
       <c r="H4" t="n">
-        <v>125.05959855883782</v>
+        <v>64.02110633441491</v>
       </c>
       <c r="I4" t="s">
-        <v>141</v>
+        <v>225</v>
       </c>
       <c r="J4" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="5">
@@ -733,28 +1069,28 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="E5" t="n">
-        <v>9.065431604266467E-6</v>
+        <v>1.1002492486722436E-5</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004623370118175898</v>
+        <v>0.004208453376171332</v>
       </c>
       <c r="G5" t="n">
-        <v>12.396694214876032</v>
+        <v>11.988011988011987</v>
       </c>
       <c r="H5" t="n">
-        <v>143.93853846355665</v>
+        <v>136.87179286071645</v>
       </c>
       <c r="I5" t="s">
-        <v>142</v>
+        <v>226</v>
       </c>
       <c r="J5" t="n">
         <v>6.0</v>
@@ -765,31 +1101,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="E6" t="n">
-        <v>1.213495937168094E-5</v>
+        <v>3.015811869290756E-6</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004671959358097162</v>
+        <v>0.004614192160014857</v>
       </c>
       <c r="G6" t="n">
-        <v>7.451564828614009</v>
+        <v>14.985014985014983</v>
       </c>
       <c r="H6" t="n">
-        <v>84.347392450218</v>
+        <v>190.48413817163197</v>
       </c>
       <c r="I6" t="s">
-        <v>143</v>
+        <v>227</v>
       </c>
       <c r="J6" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="7">
@@ -797,31 +1133,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="E7" t="n">
-        <v>2.303695119097196E-5</v>
+        <v>9.203505756510273E-6</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0050352193317410145</v>
+        <v>0.0046937879358202395</v>
       </c>
       <c r="G7" t="n">
-        <v>23.923444976076553</v>
+        <v>17.724211272598367</v>
       </c>
       <c r="H7" t="n">
-        <v>255.46437937017402</v>
+        <v>205.5286438497721</v>
       </c>
       <c r="I7" t="s">
-        <v>144</v>
+        <v>228</v>
       </c>
       <c r="J7" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="8">
@@ -829,31 +1165,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="E8" t="n">
-        <v>2.0681258101940307E-5</v>
+        <v>1.040313776162655E-6</v>
       </c>
       <c r="F8" t="n">
-        <v>0.005273720815994778</v>
+        <v>0.005308721199758028</v>
       </c>
       <c r="G8" t="n">
-        <v>24.57002457002457</v>
+        <v>8.600095556617296</v>
       </c>
       <c r="H8" t="n">
-        <v>265.01923030770604</v>
+        <v>118.47481475604636</v>
       </c>
       <c r="I8" t="s">
-        <v>144</v>
+        <v>229</v>
       </c>
       <c r="J8" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="9">
@@ -861,31 +1197,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="E9" t="n">
-        <v>1.7655543955328622E-5</v>
+        <v>2.629612813973838E-5</v>
       </c>
       <c r="F9" t="n">
-        <v>0.005402596450330558</v>
+        <v>0.00574758229339996</v>
       </c>
       <c r="G9" t="n">
-        <v>4.798464491362764</v>
+        <v>23.134759976865237</v>
       </c>
       <c r="H9" t="n">
-        <v>52.51660613621825</v>
+        <v>243.98123420797435</v>
       </c>
       <c r="I9" t="s">
-        <v>145</v>
+        <v>230</v>
       </c>
       <c r="J9" t="n">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +1229,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>104</v>
+        <v>160</v>
       </c>
       <c r="E10" t="n">
-        <v>7.808489270206901E-6</v>
+        <v>2.4336863671832835E-5</v>
       </c>
       <c r="F10" t="n">
-        <v>0.005973494291708279</v>
+        <v>0.006205900236317373</v>
       </c>
       <c r="G10" t="n">
-        <v>18.328445747800586</v>
+        <v>4.64027335428487</v>
       </c>
       <c r="H10" t="n">
-        <v>215.54800308168106</v>
+        <v>49.29602905217638</v>
       </c>
       <c r="I10" t="s">
-        <v>146</v>
+        <v>231</v>
       </c>
       <c r="J10" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="11">
@@ -925,31 +1261,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5859972341480605E-5</v>
+        <v>2.3609980986294872E-5</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0060664394206163316</v>
+        <v>0.007224654181806231</v>
       </c>
       <c r="G11" t="n">
-        <v>4.854368932038835</v>
+        <v>23.76002376002376</v>
       </c>
       <c r="H11" t="n">
-        <v>53.64908779454284</v>
+        <v>253.13551558518344</v>
       </c>
       <c r="I11" t="s">
-        <v>147</v>
+        <v>230</v>
       </c>
       <c r="J11" t="n">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="12">
@@ -957,28 +1293,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="D12" t="s">
-        <v>106</v>
+        <v>162</v>
       </c>
       <c r="E12" t="n">
-        <v>3.5150109815095874E-5</v>
+        <v>4.480827144203973E-5</v>
       </c>
       <c r="F12" t="n">
-        <v>0.006722458502137086</v>
+        <v>0.0085695819132901</v>
       </c>
       <c r="G12" t="n">
-        <v>6.424670735624799</v>
+        <v>6.212868403681124</v>
       </c>
       <c r="H12" t="n">
-        <v>65.89067019291792</v>
+        <v>62.21018323415684</v>
       </c>
       <c r="I12" t="s">
-        <v>148</v>
+        <v>232</v>
       </c>
       <c r="J12" t="n">
         <v>8.0</v>
@@ -989,31 +1325,31 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="E13" t="n">
-        <v>7.579168539215986E-5</v>
+        <v>5.462809379672772E-5</v>
       </c>
       <c r="F13" t="n">
-        <v>0.017886837752549727</v>
+        <v>0.009286775945443713</v>
       </c>
       <c r="G13" t="n">
-        <v>35.88516746411483</v>
+        <v>3.6350418029807336</v>
       </c>
       <c r="H13" t="n">
-        <v>340.4613144519903</v>
+        <v>35.677798143007266</v>
       </c>
       <c r="I13" t="s">
-        <v>149</v>
+        <v>233</v>
       </c>
       <c r="J13" t="n">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="14">
@@ -1021,31 +1357,31 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="E14" t="n">
-        <v>1.651752545734358E-4</v>
+        <v>7.698939781252377E-5</v>
       </c>
       <c r="F14" t="n">
-        <v>0.028079793277484087</v>
+        <v>0.011779377865316137</v>
       </c>
       <c r="G14" t="n">
-        <v>3.4698126301179735</v>
+        <v>11.446886446886447</v>
       </c>
       <c r="H14" t="n">
-        <v>30.21687542961432</v>
+        <v>108.42310939030764</v>
       </c>
       <c r="I14" t="s">
-        <v>150</v>
+        <v>234</v>
       </c>
       <c r="J14" t="n">
-        <v>12.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="15">
@@ -1053,31 +1389,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c r="E15" t="n">
-        <v>2.1707029539555305E-4</v>
+        <v>8.375551803356849E-5</v>
       </c>
       <c r="F15" t="n">
-        <v>0.03321175519551962</v>
+        <v>0.019766302255922165</v>
       </c>
       <c r="G15" t="n">
-        <v>13.568521031207597</v>
+        <v>34.70213996529785</v>
       </c>
       <c r="H15" t="n">
-        <v>114.45440047444609</v>
+        <v>325.7701041918415</v>
       </c>
       <c r="I15" t="s">
-        <v>151</v>
+        <v>235</v>
       </c>
       <c r="J15" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="16">
@@ -1085,31 +1421,31 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="D16" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="E16" t="n">
-        <v>2.7685572008301264E-4</v>
+        <v>1.7705812501875903E-4</v>
       </c>
       <c r="F16" t="n">
-        <v>0.03850811379336449</v>
+        <v>0.03408368906611111</v>
       </c>
       <c r="G16" t="n">
-        <v>23.510971786833853</v>
+        <v>4.495504495504496</v>
       </c>
       <c r="H16" t="n">
-        <v>192.60221129156253</v>
+        <v>38.83680939273683</v>
       </c>
       <c r="I16" t="s">
-        <v>152</v>
+        <v>236</v>
       </c>
       <c r="J16" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="17">
@@ -1117,31 +1453,31 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="E17" t="n">
-        <v>3.599905156520148E-4</v>
+        <v>2.469271012420673E-4</v>
       </c>
       <c r="F17" t="n">
-        <v>0.06929817426301285</v>
+        <v>0.03434531499094209</v>
       </c>
       <c r="G17" t="n">
-        <v>8.23451910408432</v>
+        <v>13.121207151057897</v>
       </c>
       <c r="H17" t="n">
-        <v>65.29506647127992</v>
+        <v>108.99022340914533</v>
       </c>
       <c r="I17" t="s">
-        <v>153</v>
+        <v>237</v>
       </c>
       <c r="J17" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="18">
@@ -1149,31 +1485,31 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="E18" t="n">
-        <v>6.300573246012211E-4</v>
+        <v>3.056040395434321E-4</v>
       </c>
       <c r="F18" t="n">
-        <v>0.07056642035533676</v>
+        <v>0.0389645150417876</v>
       </c>
       <c r="G18" t="n">
-        <v>7.284382284382283</v>
+        <v>22.735884804850322</v>
       </c>
       <c r="H18" t="n">
-        <v>53.68371030949631</v>
+        <v>184.0065240399694</v>
       </c>
       <c r="I18" t="s">
-        <v>154</v>
+        <v>238</v>
       </c>
       <c r="J18" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="19">
@@ -1181,31 +1517,31 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="D19" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="E19" t="n">
-        <v>3.893872483815072E-4</v>
+        <v>2.8934809223322196E-4</v>
       </c>
       <c r="F19" t="n">
-        <v>0.08332887115364254</v>
+        <v>0.045524099844693584</v>
       </c>
       <c r="G19" t="n">
-        <v>11.655011655011654</v>
+        <v>6.66000666000666</v>
       </c>
       <c r="H19" t="n">
-        <v>91.50275305827259</v>
+        <v>54.264935885783174</v>
       </c>
       <c r="I19" t="s">
-        <v>155</v>
+        <v>239</v>
       </c>
       <c r="J19" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="20">
@@ -1213,28 +1549,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0013302938140803068</v>
+        <v>0.0011815355597663728</v>
       </c>
       <c r="F20" t="n">
-        <v>0.08536051973681968</v>
+        <v>0.050543465612228174</v>
       </c>
       <c r="G20" t="n">
-        <v>4.242424242424242</v>
+        <v>4.333694474539545</v>
       </c>
       <c r="H20" t="n">
-        <v>28.09484129583425</v>
+        <v>29.213176011501893</v>
       </c>
       <c r="I20" t="s">
-        <v>156</v>
+        <v>240</v>
       </c>
       <c r="J20" t="n">
         <v>7.0</v>
@@ -1245,28 +1581,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="D21" t="s">
-        <v>115</v>
+        <v>171</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0028211999215793262</v>
+        <v>4.2034245267557767E-4</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09051349748400339</v>
+        <v>0.0539439480933658</v>
       </c>
       <c r="G21" t="n">
-        <v>5.18887505188875</v>
+        <v>7.96305144131231</v>
       </c>
       <c r="H21" t="n">
-        <v>30.46177345593177</v>
+        <v>61.9082721404828</v>
       </c>
       <c r="I21" t="s">
-        <v>157</v>
+        <v>241</v>
       </c>
       <c r="J21" t="n">
         <v>5.0</v>
@@ -1277,31 +1613,31 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="D22" t="s">
-        <v>116</v>
+        <v>172</v>
       </c>
       <c r="E22" t="n">
-        <v>7.11845050897611E-4</v>
+        <v>8.590885439250871E-4</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09135344819852675</v>
+        <v>0.05512484823519309</v>
       </c>
       <c r="G22" t="n">
-        <v>4.132231404958677</v>
+        <v>3.6161279305703435</v>
       </c>
       <c r="H22" t="n">
-        <v>29.948968162726818</v>
+        <v>25.52855618877613</v>
       </c>
       <c r="I22" t="s">
-        <v>158</v>
+        <v>242</v>
       </c>
       <c r="J22" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="23">
@@ -1309,31 +1645,31 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="E23" t="n">
-        <v>9.695188072682342E-4</v>
+        <v>0.0011665608838344766</v>
       </c>
       <c r="F23" t="n">
-        <v>0.09331618519956754</v>
+        <v>0.05614074253453419</v>
       </c>
       <c r="G23" t="n">
-        <v>4.481434058898848</v>
+        <v>6.352029473416756</v>
       </c>
       <c r="H23" t="n">
-        <v>31.095374386515775</v>
+        <v>42.89967143660524</v>
       </c>
       <c r="I23" t="s">
-        <v>159</v>
+        <v>243</v>
       </c>
       <c r="J23" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="24">
@@ -1341,31 +1677,31 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="D24" t="s">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0024414938897932186</v>
+        <v>0.0014602517252254382</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09399751475703891</v>
+        <v>0.05621969142117937</v>
       </c>
       <c r="G24" t="n">
-        <v>3.1038763967443783</v>
+        <v>6.037918125830213</v>
       </c>
       <c r="H24" t="n">
-        <v>18.6702671382234</v>
+        <v>39.422451657925365</v>
       </c>
       <c r="I24" t="s">
-        <v>160</v>
+        <v>244</v>
       </c>
       <c r="J24" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="25">
@@ -1373,31 +1709,31 @@
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D25" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="E25" t="n">
-        <v>6.753596640136004E-4</v>
+        <v>0.0016170873859610176</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09635131206594033</v>
+        <v>0.05659805850863562</v>
       </c>
       <c r="G25" t="n">
-        <v>50.5050505050505</v>
+        <v>4.102564102564103</v>
       </c>
       <c r="H25" t="n">
-        <v>368.70026128396506</v>
+        <v>26.367707314126395</v>
       </c>
       <c r="I25" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
       <c r="J25" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="26">
@@ -1405,31 +1741,31 @@
         <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
+        <v>176</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0020094881450016303</v>
+        <v>0.002669228071638599</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09670661697820346</v>
+        <v>0.05709182264338115</v>
       </c>
       <c r="G26" t="n">
-        <v>7.513148009015778</v>
+        <v>5.2578999947420995</v>
       </c>
       <c r="H26" t="n">
-        <v>46.655711822457484</v>
+        <v>31.158136390539347</v>
       </c>
       <c r="I26" t="s">
-        <v>162</v>
+        <v>246</v>
       </c>
       <c r="J26" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="27">
@@ -1437,31 +1773,31 @@
         <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="D27" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0012573216377623434</v>
+        <v>0.0025557623872737804</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09681376610770044</v>
+        <v>0.05788050112355326</v>
       </c>
       <c r="G27" t="n">
-        <v>6.243756243756243</v>
+        <v>7.032967032967033</v>
       </c>
       <c r="H27" t="n">
-        <v>41.7006212837664</v>
+        <v>41.98262652844721</v>
       </c>
       <c r="I27" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="J27" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="28">
@@ -1469,31 +1805,31 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="D28" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0017822285873814482</v>
+        <v>0.0022714106013526324</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09802257230597966</v>
+        <v>0.0582995387680509</v>
       </c>
       <c r="G28" t="n">
-        <v>5.768343331795108</v>
+        <v>7.2654618109163565</v>
       </c>
       <c r="H28" t="n">
-        <v>36.51298270888892</v>
+        <v>44.227439689014595</v>
       </c>
       <c r="I28" t="s">
-        <v>164</v>
+        <v>248</v>
       </c>
       <c r="J28" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="29">
@@ -1501,31 +1837,31 @@
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="D29" t="s">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="E29" t="n">
-        <v>0.002813490946887977</v>
+        <v>0.0025269910239636606</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09847218314107918</v>
+        <v>0.06080572151412558</v>
       </c>
       <c r="G29" t="n">
-        <v>3.323915572544457</v>
+        <v>4.381001058741922</v>
       </c>
       <c r="H29" t="n">
-        <v>19.52245051300085</v>
+        <v>26.20156694958822</v>
       </c>
       <c r="I29" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="J29" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="30">
@@ -1533,28 +1869,28 @@
         <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="D30" t="s">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0023058115253717397</v>
+        <v>0.0030144929571228446</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09863749302979109</v>
+        <v>0.06108314676275238</v>
       </c>
       <c r="G30" t="n">
-        <v>5.437146585471944</v>
+        <v>5.111167901865576</v>
       </c>
       <c r="H30" t="n">
-        <v>33.01610805106269</v>
+        <v>29.66687266225905</v>
       </c>
       <c r="I30" t="s">
-        <v>166</v>
+        <v>250</v>
       </c>
       <c r="J30" t="n">
         <v>5.0</v>
@@ -1565,31 +1901,31 @@
         <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="D31" t="s">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0035091999243701618</v>
+        <v>0.00206611793807748</v>
       </c>
       <c r="F31" t="n">
-        <v>0.10392630545250095</v>
+        <v>0.06118887739690999</v>
       </c>
       <c r="G31" t="n">
-        <v>2.9388714733542316</v>
+        <v>5.578178167010654</v>
       </c>
       <c r="H31" t="n">
-        <v>16.611580748222725</v>
+        <v>34.48476501750274</v>
       </c>
       <c r="I31" t="s">
-        <v>167</v>
+        <v>251</v>
       </c>
       <c r="J31" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="32">
@@ -1597,28 +1933,28 @@
         <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="D32" t="s">
-        <v>126</v>
+        <v>178</v>
       </c>
       <c r="E32" t="n">
-        <v>8.539658323397462E-4</v>
+        <v>0.0022714106013526324</v>
       </c>
       <c r="F32" t="n">
-        <v>0.10888064362331763</v>
+        <v>0.06246379153719739</v>
       </c>
       <c r="G32" t="n">
-        <v>9.469696969696969</v>
+        <v>7.2654618109163565</v>
       </c>
       <c r="H32" t="n">
-        <v>66.90927437448802</v>
+        <v>44.227439689014595</v>
       </c>
       <c r="I32" t="s">
-        <v>168</v>
+        <v>252</v>
       </c>
       <c r="J32" t="n">
         <v>4.0</v>
@@ -1629,31 +1965,31 @@
         <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="D33" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="E33" t="n">
-        <v>6.402806649405614E-5</v>
+        <v>0.0011368735805742677</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1089117411063895</v>
+        <v>0.06252804693158473</v>
       </c>
       <c r="G33" t="n">
-        <v>37.878787878787875</v>
+        <v>6.38895987733197</v>
       </c>
       <c r="H33" t="n">
-        <v>365.76473605170776</v>
+        <v>43.313782629858615</v>
       </c>
       <c r="I33" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="J33" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="34">
@@ -1661,31 +1997,31 @@
         <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="D34" t="s">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="E34" t="n">
-        <v>4.42215235401176E-5</v>
+        <v>0.00326191161290929</v>
       </c>
       <c r="F34" t="n">
-        <v>0.11283121731261006</v>
+        <v>0.06279179854850384</v>
       </c>
       <c r="G34" t="n">
-        <v>42.61363636363636</v>
+        <v>5.017813236991318</v>
       </c>
       <c r="H34" t="n">
-        <v>427.2570566541878</v>
+        <v>28.729198008588625</v>
       </c>
       <c r="I34" t="s">
-        <v>170</v>
+        <v>254</v>
       </c>
       <c r="J34" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="35">
@@ -1693,28 +2029,28 @@
         <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="D35" t="s">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="E35" t="n">
-        <v>0.004250589571268994</v>
+        <v>4.4236911271772526E-4</v>
       </c>
       <c r="F35" t="n">
-        <v>0.11689121320989733</v>
+        <v>0.0631113267477288</v>
       </c>
       <c r="G35" t="n">
-        <v>6.1012812690665035</v>
+        <v>11.270780501549732</v>
       </c>
       <c r="H35" t="n">
-        <v>33.31725187928847</v>
+        <v>87.04836210469807</v>
       </c>
       <c r="I35" t="s">
-        <v>171</v>
+        <v>255</v>
       </c>
       <c r="J35" t="n">
         <v>4.0</v>
@@ -1725,31 +2061,31 @@
         <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D36" t="s">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0014941049201819259</v>
+        <v>8.22714962038816E-4</v>
       </c>
       <c r="F36" t="n">
-        <v>0.12789538116757287</v>
+        <v>0.06334905207698883</v>
       </c>
       <c r="G36" t="n">
-        <v>3.68052999631947</v>
+        <v>6.868131868131868</v>
       </c>
       <c r="H36" t="n">
-        <v>23.94636719557827</v>
+        <v>48.78365904840907</v>
       </c>
       <c r="I36" t="s">
-        <v>172</v>
+        <v>256</v>
       </c>
       <c r="J36" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="37">
@@ -1757,31 +2093,31 @@
         <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="C37" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="D37" t="s">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0012351802641447135</v>
+        <v>0.0019762637005994684</v>
       </c>
       <c r="F37" t="n">
-        <v>0.13216428826348434</v>
+        <v>0.06340512706089961</v>
       </c>
       <c r="G37" t="n">
-        <v>8.576329331046312</v>
+        <v>5.635390250774866</v>
       </c>
       <c r="H37" t="n">
-        <v>57.431718324901595</v>
+        <v>35.089023594477155</v>
       </c>
       <c r="I37" t="s">
-        <v>162</v>
+        <v>257</v>
       </c>
       <c r="J37" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="38">
@@ -1789,28 +2125,28 @@
         <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C38" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="D38" t="s">
-        <v>132</v>
+        <v>187</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0054649512605630095</v>
+        <v>7.60234415108757E-4</v>
       </c>
       <c r="F38" t="n">
-        <v>0.14026708235445057</v>
+        <v>0.0650760659333096</v>
       </c>
       <c r="G38" t="n">
-        <v>5.681818181818182</v>
+        <v>9.768009768009767</v>
       </c>
       <c r="H38" t="n">
-        <v>29.59886406740409</v>
+        <v>70.15271044014112</v>
       </c>
       <c r="I38" t="s">
-        <v>173</v>
+        <v>258</v>
       </c>
       <c r="J38" t="n">
         <v>4.0</v>
@@ -1821,28 +2157,28 @@
         <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="D39" t="s">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="E39" t="n">
-        <v>3.381273491118899E-4</v>
+        <v>9.15350488219901E-4</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1447185054198889</v>
+        <v>0.0652950014930196</v>
       </c>
       <c r="G39" t="n">
-        <v>4.626416840157298</v>
+        <v>3.9779225299587293</v>
       </c>
       <c r="H39" t="n">
-        <v>36.974730330427086</v>
+        <v>27.83035560160212</v>
       </c>
       <c r="I39" t="s">
-        <v>174</v>
+        <v>259</v>
       </c>
       <c r="J39" t="n">
         <v>8.0</v>
@@ -1853,31 +2189,31 @@
         <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="D40" t="s">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="E40" t="n">
-        <v>0.007175706441675108</v>
+        <v>0.00439570789721816</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1625086458849951</v>
+        <v>0.07692488820131779</v>
       </c>
       <c r="G40" t="n">
-        <v>5.254860746190225</v>
+        <v>3.9130009456418953</v>
       </c>
       <c r="H40" t="n">
-        <v>25.943531599648704</v>
+        <v>21.23635187811429</v>
       </c>
       <c r="I40" t="s">
-        <v>175</v>
+        <v>260</v>
       </c>
       <c r="J40" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="41">
@@ -1885,31 +2221,31 @@
         <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="C41" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="D41" t="s">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="E41" t="n">
-        <v>0.00235398982516289</v>
+        <v>7.219597805088817E-4</v>
       </c>
       <c r="F41" t="n">
-        <v>0.16791794086161949</v>
+        <v>0.07724969651445034</v>
       </c>
       <c r="G41" t="n">
-        <v>5.411255411255411</v>
+        <v>48.84004884004884</v>
       </c>
       <c r="H41" t="n">
-        <v>32.74698913698107</v>
+        <v>353.28650189447785</v>
       </c>
       <c r="I41" t="s">
-        <v>176</v>
+        <v>261</v>
       </c>
       <c r="J41" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="42">
@@ -1917,31 +2253,31 @@
         <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="D42" t="s">
-        <v>136</v>
+        <v>191</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0070329925398383885</v>
+        <v>8.205741999230383E-4</v>
       </c>
       <c r="F42" t="n">
-        <v>0.16923138298986123</v>
+        <v>0.07898026674259244</v>
       </c>
       <c r="G42" t="n">
-        <v>5.285412262156448</v>
+        <v>3.3350564458303458</v>
       </c>
       <c r="H42" t="n">
-        <v>26.20054430440579</v>
+        <v>23.69726431640913</v>
       </c>
       <c r="I42" t="s">
-        <v>177</v>
+        <v>262</v>
       </c>
       <c r="J42" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="43">
@@ -1949,31 +2285,31 @@
         <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="D43" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0034641134634225217</v>
+        <v>0.004789018171592909</v>
       </c>
       <c r="F43" t="n">
-        <v>0.18533007029310491</v>
+        <v>0.08016399982883782</v>
       </c>
       <c r="G43" t="n">
-        <v>4.107338444687842</v>
+        <v>5.900140128328047</v>
       </c>
       <c r="H43" t="n">
-        <v>23.269298468464342</v>
+        <v>31.515184678426074</v>
       </c>
       <c r="I43" t="s">
-        <v>178</v>
+        <v>263</v>
       </c>
       <c r="J43" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="44">
@@ -1981,31 +2317,959 @@
         <v>51</v>
       </c>
       <c r="B44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" t="s">
+        <v>128</v>
+      </c>
+      <c r="D44" t="s">
+        <v>193</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.004392636548836946</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.08053167006201067</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2.8419856006062902</v>
+      </c>
+      <c r="H44" t="n">
+        <v>15.425802344365493</v>
+      </c>
+      <c r="I44" t="s">
+        <v>264</v>
+      </c>
+      <c r="J44" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" t="s">
+        <v>194</v>
+      </c>
+      <c r="E45" t="n">
+        <v>7.34067756790916E-4</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.08221558876058259</v>
+      </c>
+      <c r="G45" t="n">
+        <v>7.044237813468582</v>
+      </c>
+      <c r="H45" t="n">
+        <v>50.8376248373202</v>
+      </c>
+      <c r="I45" t="s">
+        <v>265</v>
+      </c>
+      <c r="J45" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" t="s">
+        <v>119</v>
+      </c>
+      <c r="D46" t="s">
+        <v>195</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.0013986285414222949</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.08551614510410602</v>
+      </c>
+      <c r="G46" t="n">
+        <v>8.293593199253577</v>
+      </c>
+      <c r="H46" t="n">
+        <v>54.50767684648876</v>
+      </c>
+      <c r="I46" t="s">
+        <v>252</v>
+      </c>
+      <c r="J46" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" t="s">
+        <v>196</v>
+      </c>
+      <c r="E47" t="n">
+        <v>4.248659916192033E-4</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.0909213222065095</v>
+      </c>
+      <c r="G47" t="n">
+        <v>4.473897603668596</v>
+      </c>
+      <c r="H47" t="n">
+        <v>34.73416325296596</v>
+      </c>
+      <c r="I47" t="s">
+        <v>266</v>
+      </c>
+      <c r="J47" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" t="s">
+        <v>130</v>
+      </c>
+      <c r="D48" t="s">
+        <v>197</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2.9726443922868765E-4</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.0915574472824358</v>
+      </c>
+      <c r="G48" t="n">
+        <v>6.626539289855872</v>
+      </c>
+      <c r="H48" t="n">
+        <v>53.81338636609736</v>
+      </c>
+      <c r="I48" t="s">
+        <v>239</v>
+      </c>
+      <c r="J48" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" t="s">
+        <v>131</v>
+      </c>
+      <c r="D49" t="s">
+        <v>198</v>
+      </c>
+      <c r="E49" t="n">
+        <v>7.896305685188318E-4</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.0929334438333702</v>
+      </c>
+      <c r="G49" t="n">
+        <v>4.070004070004069</v>
+      </c>
+      <c r="H49" t="n">
+        <v>29.075886677512173</v>
+      </c>
+      <c r="I49" t="s">
+        <v>267</v>
+      </c>
+      <c r="J49" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50" t="s">
+        <v>132</v>
+      </c>
+      <c r="D50" t="s">
+        <v>199</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.005952083018165621</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.09548133174974018</v>
+      </c>
+      <c r="G50" t="n">
+        <v>3.6732070158254</v>
+      </c>
+      <c r="H50" t="n">
+        <v>18.821564297422483</v>
+      </c>
+      <c r="I50" t="s">
+        <v>268</v>
+      </c>
+      <c r="J50" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
         <v>58</v>
       </c>
-      <c r="C44" t="s">
-        <v>95</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="B51" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" t="s">
+        <v>133</v>
+      </c>
+      <c r="D51" t="s">
+        <v>200</v>
+      </c>
+      <c r="E51" t="n">
+        <v>9.469024566445905E-4</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.10348291133330167</v>
+      </c>
+      <c r="G51" t="n">
+        <v>5.317263381779511</v>
+      </c>
+      <c r="H51" t="n">
+        <v>37.020459797432906</v>
+      </c>
+      <c r="I51" t="s">
+        <v>269</v>
+      </c>
+      <c r="J51" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" t="s">
+        <v>134</v>
+      </c>
+      <c r="D52" t="s">
+        <v>201</v>
+      </c>
+      <c r="E52" t="n">
+        <v>7.076377456637316E-5</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.12036918053740074</v>
+      </c>
+      <c r="G52" t="n">
+        <v>36.63003663003663</v>
+      </c>
+      <c r="H52" t="n">
+        <v>350.0426134385937</v>
+      </c>
+      <c r="I52" t="s">
+        <v>270</v>
+      </c>
+      <c r="J52" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" t="s">
+        <v>135</v>
+      </c>
+      <c r="D53" t="s">
+        <v>202</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.008062333948787711</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.12415994281133075</v>
+      </c>
+      <c r="G53" t="n">
+        <v>5.081623578733405</v>
+      </c>
+      <c r="H53" t="n">
+        <v>24.496231684286524</v>
+      </c>
+      <c r="I53" t="s">
+        <v>271</v>
+      </c>
+      <c r="J53" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" t="s">
+        <v>136</v>
+      </c>
+      <c r="D54" t="s">
+        <v>203</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.008387530621489036</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.12419997266435688</v>
+      </c>
+      <c r="G54" t="n">
+        <v>5.023547880690738</v>
+      </c>
+      <c r="H54" t="n">
+        <v>24.017628261690824</v>
+      </c>
+      <c r="I54" t="s">
+        <v>272</v>
+      </c>
+      <c r="J54" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" t="s">
+        <v>137</v>
+      </c>
+      <c r="D55" t="s">
+        <v>204</v>
+      </c>
+      <c r="E55" t="n">
+        <v>4.8884574766446685E-5</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.12472899251658871</v>
+      </c>
+      <c r="G55" t="n">
+        <v>41.208791208791204</v>
+      </c>
+      <c r="H55" t="n">
+        <v>409.0404665808567</v>
+      </c>
+      <c r="I55" t="s">
+        <v>273</v>
+      </c>
+      <c r="J55" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" t="s">
+        <v>205</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.0027246708811768587</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.1295732374604106</v>
+      </c>
+      <c r="G56" t="n">
+        <v>5.232862375719518</v>
+      </c>
+      <c r="H56" t="n">
+        <v>30.90218543019833</v>
+      </c>
+      <c r="I56" t="s">
+        <v>274</v>
+      </c>
+      <c r="J56" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" t="s">
         <v>138</v>
       </c>
-      <c r="E44" t="n">
-        <v>8.346502829277348E-4</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.19781211705387314</v>
-      </c>
-      <c r="G44" t="n">
-        <v>16.233766233766232</v>
-      </c>
-      <c r="H44" t="n">
-        <v>115.07301531956553</v>
-      </c>
-      <c r="I44" t="s">
-        <v>179</v>
-      </c>
-      <c r="J44" t="n">
+      <c r="D57" t="s">
+        <v>206</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1.0268838513931302E-4</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.1310047073414786</v>
+      </c>
+      <c r="G57" t="n">
+        <v>10.77354018530489</v>
+      </c>
+      <c r="H57" t="n">
+        <v>98.94216270702711</v>
+      </c>
+      <c r="I57" t="s">
+        <v>275</v>
+      </c>
+      <c r="J57" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58" t="s">
+        <v>139</v>
+      </c>
+      <c r="D58" t="s">
+        <v>207</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.009237876633413251</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.13172527792089264</v>
+      </c>
+      <c r="G58" t="n">
+        <v>4.8840048840048835</v>
+      </c>
+      <c r="H58" t="n">
+        <v>22.878843571749083</v>
+      </c>
+      <c r="I58" t="s">
+        <v>276</v>
+      </c>
+      <c r="J58" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" t="s">
+        <v>136</v>
+      </c>
+      <c r="D59" t="s">
+        <v>208</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.002663579809883278</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.1425015198287554</v>
+      </c>
+      <c r="G59" t="n">
+        <v>25.856496444731736</v>
+      </c>
+      <c r="H59" t="n">
+        <v>153.27948979359581</v>
+      </c>
+      <c r="I59" t="s">
+        <v>277</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" t="s">
+        <v>140</v>
+      </c>
+      <c r="D60" t="s">
+        <v>209</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.0012782997068282447</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.151478515259147</v>
+      </c>
+      <c r="G60" t="n">
+        <v>14.028524666822538</v>
+      </c>
+      <c r="H60" t="n">
+        <v>93.46117986628978</v>
+      </c>
+      <c r="I60" t="s">
+        <v>278</v>
+      </c>
+      <c r="J60" t="n">
         <v>3.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" t="s">
+        <v>141</v>
+      </c>
+      <c r="D61" t="s">
+        <v>210</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.011351665939689884</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.15608540667073592</v>
+      </c>
+      <c r="G61" t="n">
+        <v>3.7125037125037124</v>
+      </c>
+      <c r="H61" t="n">
+        <v>16.62604234852384</v>
+      </c>
+      <c r="I61" t="s">
+        <v>279</v>
+      </c>
+      <c r="J61" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" t="s">
+        <v>112</v>
+      </c>
+      <c r="D62" t="s">
+        <v>211</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.004088794723328219</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.17500041415844778</v>
+      </c>
+      <c r="G62" t="n">
+        <v>3.9719316827750557</v>
+      </c>
+      <c r="H62" t="n">
+        <v>21.8436583120461</v>
+      </c>
+      <c r="I62" t="s">
+        <v>280</v>
+      </c>
+      <c r="J62" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" t="s">
+        <v>142</v>
+      </c>
+      <c r="D63" t="s">
+        <v>212</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1.7340796085717035E-4</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.17698016485082807</v>
+      </c>
+      <c r="G63" t="n">
+        <v>9.639483323693849</v>
+      </c>
+      <c r="H63" t="n">
+        <v>83.4766106063946</v>
+      </c>
+      <c r="I63" t="s">
+        <v>281</v>
+      </c>
+      <c r="J63" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" t="s">
+        <v>126</v>
+      </c>
+      <c r="D64" t="s">
+        <v>213</v>
+      </c>
+      <c r="E64" t="n">
+        <v>4.1470043660079935E-4</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.1774917868651421</v>
+      </c>
+      <c r="G64" t="n">
+        <v>4.004093072918983</v>
+      </c>
+      <c r="H64" t="n">
+        <v>31.183693215781346</v>
+      </c>
+      <c r="I64" t="s">
+        <v>282</v>
+      </c>
+      <c r="J64" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" t="s">
+        <v>143</v>
+      </c>
+      <c r="D65" t="s">
+        <v>214</v>
+      </c>
+      <c r="E65" t="n">
+        <v>6.329801966031103E-4</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.17944988573698178</v>
+      </c>
+      <c r="G65" t="n">
+        <v>17.82001782001782</v>
+      </c>
+      <c r="H65" t="n">
+        <v>131.24570397321065</v>
+      </c>
+      <c r="I65" t="s">
+        <v>283</v>
+      </c>
+      <c r="J65" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" t="s">
+        <v>84</v>
+      </c>
+      <c r="C66" t="s">
+        <v>144</v>
+      </c>
+      <c r="D66" t="s">
+        <v>215</v>
+      </c>
+      <c r="E66" t="n">
+        <v>6.147474872814153E-4</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.18453273103512133</v>
+      </c>
+      <c r="G66" t="n">
+        <v>7.326007326007326</v>
+      </c>
+      <c r="H66" t="n">
+        <v>54.170688382850834</v>
+      </c>
+      <c r="I66" t="s">
+        <v>284</v>
+      </c>
+      <c r="J66" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67" t="s">
+        <v>145</v>
+      </c>
+      <c r="D67" t="s">
+        <v>216</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.01442624131774</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.18513676357766334</v>
+      </c>
+      <c r="G67" t="n">
+        <v>2.727768685215494</v>
+      </c>
+      <c r="H67" t="n">
+        <v>11.56221063029859</v>
+      </c>
+      <c r="I67" t="s">
+        <v>285</v>
+      </c>
+      <c r="J67" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" t="s">
+        <v>146</v>
+      </c>
+      <c r="D68" t="s">
+        <v>217</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.0023571766245942044</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.18621695334294217</v>
+      </c>
+      <c r="G68" t="n">
+        <v>27.47252747252747</v>
+      </c>
+      <c r="H68" t="n">
+        <v>166.21677806725563</v>
+      </c>
+      <c r="I68" t="s">
+        <v>286</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" t="s">
+        <v>82</v>
+      </c>
+      <c r="C69" t="s">
+        <v>147</v>
+      </c>
+      <c r="D69" t="s">
+        <v>218</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.014330591507597534</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.19025095622155347</v>
+      </c>
+      <c r="G69" t="n">
+        <v>4.288394532296971</v>
+      </c>
+      <c r="H69" t="n">
+        <v>18.205773295835307</v>
+      </c>
+      <c r="I69" t="s">
+        <v>287</v>
+      </c>
+      <c r="J69" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70" t="s">
+        <v>148</v>
+      </c>
+      <c r="D70" t="s">
+        <v>219</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.002014713593609096</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.1926569873888698</v>
+      </c>
+      <c r="G70" t="n">
+        <v>11.988011988011987</v>
+      </c>
+      <c r="H70" t="n">
+        <v>74.41292584438725</v>
+      </c>
+      <c r="I70" t="s">
+        <v>288</v>
+      </c>
+      <c r="J70" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" t="s">
+        <v>83</v>
+      </c>
+      <c r="C71" t="s">
+        <v>149</v>
+      </c>
+      <c r="D71" t="s">
+        <v>220</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.0018898414286136153</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.19276382571858877</v>
+      </c>
+      <c r="G71" t="n">
+        <v>4.6432440798637975</v>
+      </c>
+      <c r="H71" t="n">
+        <v>29.119001796787682</v>
+      </c>
+      <c r="I71" t="s">
+        <v>289</v>
+      </c>
+      <c r="J71" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" t="s">
+        <v>84</v>
+      </c>
+      <c r="C72" t="s">
+        <v>150</v>
+      </c>
+      <c r="D72" t="s">
+        <v>221</v>
+      </c>
+      <c r="E72" t="n">
+        <v>6.101964518165643E-4</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.1946145308512455</v>
+      </c>
+      <c r="G72" t="n">
+        <v>4.85319097306479</v>
+      </c>
+      <c r="H72" t="n">
+        <v>35.92200728214647</v>
+      </c>
+      <c r="I72" t="s">
+        <v>290</v>
+      </c>
+      <c r="J72" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73" t="s">
+        <v>84</v>
+      </c>
+      <c r="C73" t="s">
+        <v>151</v>
+      </c>
+      <c r="D73" t="s">
+        <v>222</v>
+      </c>
+      <c r="E73" t="n">
+        <v>5.861003841827941E-4</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.19939135069898656</v>
+      </c>
+      <c r="G73" t="n">
+        <v>10.465724751439035</v>
+      </c>
+      <c r="H73" t="n">
+        <v>77.88612746197724</v>
+      </c>
+      <c r="I73" t="s">
+        <v>291</v>
+      </c>
+      <c r="J73" t="n">
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>
